--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBBFF98-03C2-4AC1-A819-1DBFDED482D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina_Popup" sheetId="1" r:id="rId1"/>
@@ -73,63 +73,10 @@
     <t>ELLED Relevant Legislation:</t>
   </si>
   <si>
-    <r>
-      <t>National Mining Plan, 2009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Social Mining Plan, 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
     <t>Creation of the Registry of Suppliers of Economic Activities, 2018</t>
   </si>
   <si>
     <t>ELLED Relevant News:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">June 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -158,41 +105,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">July 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">September 2020 – Argentina Pumps US$13mn more into Industrial Supplier Development Scheme </t>
     </r>
     <r>
@@ -236,6 +148,124 @@
     </r>
   </si>
   <si>
+    <t>Relevant Initiatives:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Mining Plan, 2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Social Mining Plan, 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">June 2021 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">July 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SME</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">López et al. (2019) – </t>
     </r>
@@ -243,7 +273,7 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -253,7 +283,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -271,11 +301,16 @@
     </r>
   </si>
   <si>
-    <t>Relevant Initiatives:</t>
-  </si>
-  <si>
-    <r>
-      <t>National Supplier Development Program for Argentinian mining suppliers</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
     </r>
     <r>
       <rPr>
@@ -289,6 +324,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Argentian Chamber of Mining Suppliers</t>
     </r>
     <r>
@@ -303,6 +346,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
     </r>
     <r>
@@ -319,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,13 +502,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,45 +540,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -932,63 +983,70 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1345,11 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+      <selection sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,122 +1420,124 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="18">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -1486,79 +1546,80 @@
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>21</v>
+      <c r="A23" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=AR"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=AR"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=AR"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/argentina"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/8/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://www.infoleg.gob.ar/basehome/actos_gobierno/actosdegobierno11-5-2009-1.htm"/>
-    <hyperlink ref="A14" r:id="rId8" display="http://servicios.infoleg.gob.ar/infolegInternet/anexos/335000-339999/339338/norma.htm"/>
-    <hyperlink ref="A15" r:id="rId9" display="http://www.saij.gob.ar/3616-local-santa-cruz-creacion-registro-unico-proveedores-actividades-economicas-ambito-ministerio-produccion-comercio-industria-provincia-santa-cruz-lpz0003616-2018-09-13/123456789-0abc-defg-616-3000zvorpyel?utm_source=newsletter-semanal&amp;utm_medium=email&amp;utm_term=semanal&amp;utm_campaign=ley-provincial"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://laopinionaustral.com.ar/edicion-impresa/desde-produccion-trabajan-para-que-las-mineras-cumplan-con-el-compre-local-368029.html"/>
-    <hyperlink ref="A20" r:id="rId11" display="http://clippingminero.com.ar/buscan-que-al-menos-el-60-de-las-contrataciones-de-las-mineras-que-operan-en-salta-sean-con-pymes-locales/"/>
-    <hyperlink ref="A25" r:id="rId12" display="https://www.argentina.gob.ar/sites/default/files/bid-litio-final.pdf"/>
-    <hyperlink ref="A28" r:id="rId13" display="https://www.argentina.gob.ar/acceder-al-programa-de-desarrollo-de-proveedores"/>
-    <hyperlink ref="A29" r:id="rId14" display="https://www.capmin.com.ar/actividades/"/>
-    <hyperlink ref="A30" r:id="rId15" display="https://produccionsalta.gob.ar/producto/registro-provincial-de-proveedores-locales-de-empresas-mineras/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=AR" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=AR" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=AR" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/argentina" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/8/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="http://www.infoleg.gob.ar/basehome/actos_gobierno/actosdegobierno11-5-2009-1.htm" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" display="http://servicios.infoleg.gob.ar/infolegInternet/anexos/335000-339999/339338/norma.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" display="http://www.saij.gob.ar/3616-local-santa-cruz-creacion-registro-unico-proveedores-actividades-economicas-ambito-ministerio-produccion-comercio-industria-provincia-santa-cruz-lpz0003616-2018-09-13/123456789-0abc-defg-616-3000zvorpyel?utm_source=newsletter-semanal&amp;utm_medium=email&amp;utm_term=semanal&amp;utm_campaign=ley-provincial" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://laopinionaustral.com.ar/edicion-impresa/desde-produccion-trabajan-para-que-las-mineras-cumplan-con-el-compre-local-368029.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="http://clippingminero.com.ar/buscan-que-al-menos-el-60-de-las-contrataciones-de-las-mineras-que-operan-en-salta-sean-con-pymes-locales/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A25" r:id="rId12" display="https://www.argentina.gob.ar/sites/default/files/bid-litio-final.pdf" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A28" r:id="rId13" display="https://www.argentina.gob.ar/acceder-al-programa-de-desarrollo-de-proveedores" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A29" r:id="rId14" display="https://www.capmin.com.ar/actividades/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A30" r:id="rId15" display="https://produccionsalta.gob.ar/producto/registro-provincial-de-proveedores-locales-de-empresas-mineras/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="1">
+  <webPublishItems count="2">
     <webPublishItem id="31591" divId="Argentina_Workbook_31591" sourceType="range" sourceRef="A1:F31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Workbook.htm" autoRepublish="1"/>
+    <webPublishItem id="13932" divId="Argentina_Workbook_13932" sourceType="range" sourceRef="A1:G31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBBFF98-03C2-4AC1-A819-1DBFDED482D3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40DCB46-4CC6-44F4-8B3A-03BD6D78A7DB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16065" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina_Popup" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>National Mining Plan, 2009</t>
+      <t>Social Mining Plan, 2020</t>
     </r>
     <r>
       <rPr>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">June 2021 – </t>
+    </r>
+    <r>
       <rPr>
         <u/>
         <sz val="11"/>
@@ -182,7 +185,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Social Mining Plan, 2020</t>
+      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
     </r>
     <r>
       <rPr>
@@ -196,7 +199,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">June 2021 – </t>
+      <t xml:space="preserve">July 2020 – </t>
     </r>
     <r>
       <rPr>
@@ -207,7 +210,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
+      <t>The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SME</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -218,10 +232,20 @@
       </rPr>
       <t xml:space="preserve"> (Spanish)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">July 2020 – </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">López et al. (2019) – </t>
     </r>
     <r>
       <rPr>
@@ -232,43 +256,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SME</t>
-    </r>
+      <t>Lithium in Argentina Opportunities and Challenges for the Development of the Value Chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Spanish) </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">López et al. (2019) – </t>
-    </r>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -278,92 +310,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lithium in Argentina Opportunities and Challenges for the Development of the Value Chain</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Argentian Chamber of Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Spanish) </t>
-    </r>
-  </si>
-  <si>
+      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National Mining Plan, 2009 </t>
+    </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Argentian Chamber of Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
     </r>
   </si>
 </sst>
@@ -371,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,6 +579,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1407,7 +1407,7 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,12 +1486,12 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1579,18 +1579,18 @@
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9"/>
     </row>
@@ -1606,7 +1606,7 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/argentina" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/8/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://www.infoleg.gob.ar/basehome/actos_gobierno/actosdegobierno11-5-2009-1.htm" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A14" r:id="rId8" display="http://servicios.infoleg.gob.ar/infolegInternet/anexos/335000-339999/339338/norma.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A15" r:id="rId9" display="http://www.saij.gob.ar/3616-local-santa-cruz-creacion-registro-unico-proveedores-actividades-economicas-ambito-ministerio-produccion-comercio-industria-provincia-santa-cruz-lpz0003616-2018-09-13/123456789-0abc-defg-616-3000zvorpyel?utm_source=newsletter-semanal&amp;utm_medium=email&amp;utm_term=semanal&amp;utm_campaign=ley-provincial" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A18" r:id="rId10" display="https://laopinionaustral.com.ar/edicion-impresa/desde-produccion-trabajan-para-que-las-mineras-cumplan-con-el-compre-local-368029.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
@@ -1617,6 +1617,7 @@
     <hyperlink ref="A30" r:id="rId15" display="https://produccionsalta.gob.ar/producto/registro-provincial-de-proveedores-locales-de-empresas-mineras/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
   <webPublishItems count="2">
     <webPublishItem id="31591" divId="Argentina_Workbook_31591" sourceType="range" sourceRef="A1:F31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Workbook.htm" autoRepublish="1"/>
     <webPublishItem id="13932" divId="Argentina_Workbook_13932" sourceType="range" sourceRef="A1:G31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>

--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40DCB46-4CC6-44F4-8B3A-03BD6D78A7DB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1764B1C8-A33B-44EF-A4E2-A7D96A533199}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina_Popup" sheetId="1" r:id="rId1"/>
@@ -345,26 +345,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">National Mining Plan, 2009 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
+    <t>National Mining Plan, 2009 (Spanish)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,13 +567,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1406,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1764B1C8-A33B-44EF-A4E2-A7D96A533199}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE09A293-9786-4561-A244-190A557809E8}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina_Popup" sheetId="1" r:id="rId1"/>

--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE09A293-9786-4561-A244-190A557809E8}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E16EB6-3830-486F-A8B6-39623279E2EE}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina_Popup" sheetId="1" r:id="rId1"/>
@@ -73,58 +73,15 @@
     <t>ELLED Relevant Legislation:</t>
   </si>
   <si>
-    <t>Creation of the Registry of Suppliers of Economic Activities, 2018</t>
-  </si>
-  <si>
     <t>ELLED Relevant News:</t>
   </si>
   <si>
-    <r>
-      <t>May 2021 – More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">September 2020 – Argentina Pumps US$13mn more into Industrial Supplier Development Scheme </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Analysis and Case Studies:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Obaya et al. (2021) – </t>
-    </r>
+    <t>Relevant Initiatives:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -134,21 +91,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Curb your Enthusiasm. Challenges to the Development of Lithium-based Linkages in Argentina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <t>Relevant Initiatives:</t>
+      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
   </si>
   <si>
     <r>
@@ -160,20 +113,151 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Argentian Chamber of Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Mining Plan, 2009</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Social Mining Plan, 2020</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creation of the Registry of Suppliers of Economic Activities, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">June 2021 – </t>
     </r>
     <r>
@@ -189,16 +273,79 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>May 2021 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">July 2020 – </t>
     </r>
     <r>
@@ -210,7 +357,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SME</t>
+      <t xml:space="preserve">The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">September 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Argentina Pumps US$13mn more into Industrial Supplier Development Scheme</t>
     </r>
     <r>
       <rPr>
@@ -221,30 +401,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obaya et al. (2021) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Curb your Enthusiasm. Challenges to the Development of Lithium-based Linkages in Argentina </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">López et al. (2019) – </t>
     </r>
     <r>
@@ -260,8 +482,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -270,6 +493,7 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -277,75 +501,6 @@
       </rPr>
       <t xml:space="preserve">(Spanish) </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Argentian Chamber of Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <t>National Mining Plan, 2009 (Spanish)</t>
   </si>
 </sst>
 </file>
@@ -534,13 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -567,6 +715,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -967,7 +1122,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1005,28 +1160,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1387,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1619,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,8 +1628,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>13</v>
+      <c r="A15" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,12 +1637,12 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
+      <c r="A18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1498,16 +1650,16 @@
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
+      <c r="A19" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
+      <c r="A20" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1517,8 +1669,8 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -1528,20 +1680,20 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>18</v>
+      <c r="A24" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>23</v>
+      <c r="A25" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1555,23 +1707,23 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B30" s="9"/>
     </row>
@@ -1588,17 +1740,20 @@
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/argentina" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/8/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A14" r:id="rId8" display="http://servicios.infoleg.gob.ar/infolegInternet/anexos/335000-339999/339338/norma.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A15" r:id="rId9" display="http://www.saij.gob.ar/3616-local-santa-cruz-creacion-registro-unico-proveedores-actividades-economicas-ambito-ministerio-produccion-comercio-industria-provincia-santa-cruz-lpz0003616-2018-09-13/123456789-0abc-defg-616-3000zvorpyel?utm_source=newsletter-semanal&amp;utm_medium=email&amp;utm_term=semanal&amp;utm_campaign=ley-provincial" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://laopinionaustral.com.ar/edicion-impresa/desde-produccion-trabajan-para-que-las-mineras-cumplan-con-el-compre-local-368029.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A20" r:id="rId11" display="http://clippingminero.com.ar/buscan-que-al-menos-el-60-de-las-contrataciones-de-las-mineras-que-operan-en-salta-sean-con-pymes-locales/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A25" r:id="rId12" display="https://www.argentina.gob.ar/sites/default/files/bid-litio-final.pdf" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="July 2020 – The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs (Spanish) " xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A28" r:id="rId13" display="https://www.argentina.gob.ar/acceder-al-programa-de-desarrollo-de-proveedores" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A29" r:id="rId14" display="https://www.capmin.com.ar/actividades/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A30" r:id="rId15" display="https://produccionsalta.gob.ar/producto/registro-provincial-de-proveedores-locales-de-empresas-mineras/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A19" r:id="rId16" display="May 2021 – More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province  (Spanish)" xr:uid="{5FEA64BC-C61D-4B4F-AD3B-ADBE6A40FD40}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{7251D138-FAB7-448C-A5C7-ECDD71BB3CDD}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{332898C8-8EAE-4DE1-9CC4-62FB6E43078A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
   <webPublishItems count="2">
     <webPublishItem id="31591" divId="Argentina_Workbook_31591" sourceType="range" sourceRef="A1:F31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Workbook.htm" autoRepublish="1"/>
     <webPublishItem id="13932" divId="Argentina_Workbook_13932" sourceType="range" sourceRef="A1:G31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>

--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E16EB6-3830-486F-A8B6-39623279E2EE}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C609C1B-EE0D-436E-8F86-89F10EA84C3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,15 +43,198 @@
     <t>4% (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">Human Development Index (World Rank) </t>
-  </si>
-  <si>
     <t>EITI Status</t>
   </si>
   <si>
     <t>Yet to be assessed against the Standard</t>
   </si>
   <si>
+    <t>Link to key economic information.</t>
+  </si>
+  <si>
+    <t>ELLED Relevant Legislation:</t>
+  </si>
+  <si>
+    <t>ELLED Relevant News:</t>
+  </si>
+  <si>
+    <t>Analysis and Case Studies:</t>
+  </si>
+  <si>
+    <t>Relevant Initiatives:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Argentian Chamber of Mining Suppliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Mining Plan, 2009</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Social Mining Plan, 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creation of the Registry of Suppliers of Economic Activities, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <t>Human Development Index (World Rank)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">* </t>
     </r>
@@ -63,25 +246,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division. </t>
-    </r>
-  </si>
-  <si>
-    <t>Link to key economic information.</t>
-  </si>
-  <si>
-    <t>ELLED Relevant Legislation:</t>
-  </si>
-  <si>
-    <t>ELLED Relevant News:</t>
-  </si>
-  <si>
-    <t>Analysis and Case Studies:</t>
-  </si>
-  <si>
-    <t>Relevant Initiatives:</t>
-  </si>
-  <si>
+      <t>World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>June 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>—</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -91,19 +278,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>National Supplier Development Program for Argentinian Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
+      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>May 2021—</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -113,19 +322,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Argentian Chamber of Mining Suppliers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>July 2020—</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -135,19 +355,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Registry of Local Suppliers of Mining Companies for the Province of Salta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>September 2020—</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -157,7 +388,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>National Mining Plan, 2009</t>
+      <t>Argentina Pumps US$13mn more into Industrial Supplier Development Scheme</t>
     </r>
     <r>
       <rPr>
@@ -178,10 +409,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Obaya et al. (2021)—</t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -191,217 +432,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Social Mining Plan, 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creation of the Registry of Suppliers of Economic Activities, 2018</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">June 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>May 2021 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">July 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">September 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Argentina Pumps US$13mn more into Industrial Supplier Development Scheme</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Curb your Enthusiasm. Challenges to the Development of Lithium-based Linkages in Argentina </t>
     </r>
     <r>
       <rPr>
@@ -423,51 +454,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Obaya et al. (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Curb your Enthusiasm. Challenges to the Development of Lithium-based Linkages in Argentina </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">López et al. (2019) – </t>
+      <t>Lopez et al. (2019)—</t>
     </r>
     <r>
       <rPr>
@@ -507,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -725,6 +712,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1540,12 +1533,12 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1581,7 +1574,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="18">
         <v>46</v>
@@ -1589,15 +1582,15 @@
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="19"/>
     </row>
@@ -1606,7 +1599,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,22 +1607,22 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1630,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1673,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,23 +1700,23 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="9"/>
     </row>
@@ -1742,21 +1735,22 @@
     <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A18" r:id="rId10" display="June 2021 – The Ministry of Production Works Towards the Goal of Mining Companies to Comply with Local Procurement (Spanish)" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A20" r:id="rId11" display="July 2020 – The Government of Salta wants that at least 60% of the Contracts of Mining Companies Operating in the Province to be with Local SMEs (Spanish) " xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId12" display="López et al. (2019) – Lithium in Argentina Opportunities and Challenges for the Development of the Value Chain (Spanish) " xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A28" r:id="rId13" display="https://www.argentina.gob.ar/acceder-al-programa-de-desarrollo-de-proveedores" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A29" r:id="rId14" display="https://www.capmin.com.ar/actividades/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="A30" r:id="rId15" display="https://produccionsalta.gob.ar/producto/registro-provincial-de-proveedores-locales-de-empresas-mineras/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A19" r:id="rId16" display="May 2021 – More than 60 Companies Interested in the Mining Registry of the Argentinian Northern Province  (Spanish)" xr:uid="{5FEA64BC-C61D-4B4F-AD3B-ADBE6A40FD40}"/>
-    <hyperlink ref="A21" r:id="rId17" xr:uid="{7251D138-FAB7-448C-A5C7-ECDD71BB3CDD}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{332898C8-8EAE-4DE1-9CC4-62FB6E43078A}"/>
+    <hyperlink ref="A21" r:id="rId17" display="September 2020 – Argentina Pumps US$13mn more into Industrial Supplier Development Scheme (Paywall)" xr:uid="{7251D138-FAB7-448C-A5C7-ECDD71BB3CDD}"/>
+    <hyperlink ref="A24" r:id="rId18" display="Obaya et al. (2021) – Curb your Enthusiasm. Challenges to the Development of Lithium-based Linkages in Argentina (Paywall)" xr:uid="{332898C8-8EAE-4DE1-9CC4-62FB6E43078A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
-  <webPublishItems count="2">
+  <webPublishItems count="3">
     <webPublishItem id="31591" divId="Argentina_Workbook_31591" sourceType="range" sourceRef="A1:F31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Workbook.htm" autoRepublish="1"/>
     <webPublishItem id="13932" divId="Argentina_Workbook_13932" sourceType="range" sourceRef="A1:G31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="18858" divId="Argentina_Workbook_18858" sourceType="range" sourceRef="A1:H31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C609C1B-EE0D-436E-8F86-89F10EA84C3D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CC7928-D3B5-44FA-91E0-F6DE6788AF55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(Spanish) </t>
+      <t>(Spanish)</t>
     </r>
   </si>
 </sst>
@@ -1533,12 +1533,12 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1588,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>

--- a/CountryData/Argentina/Argentina_Workbook.xlsx
+++ b/CountryData/Argentina/Argentina_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Argentina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CC7928-D3B5-44FA-91E0-F6DE6788AF55}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:40009_{38FEC880-4194-4C79-A346-C91BA88170A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51BEA63-78C3-497D-B299-3CD7E3AB57FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1172,6 +1172,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1533,7 +1536,7 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1598,7 @@
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1747,10 +1750,8 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
-  <webPublishItems count="3">
-    <webPublishItem id="31591" divId="Argentina_Workbook_31591" sourceType="range" sourceRef="A1:F31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Workbook.htm" autoRepublish="1"/>
-    <webPublishItem id="13932" divId="Argentina_Workbook_13932" sourceType="range" sourceRef="A1:G31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="18858" divId="Argentina_Workbook_18858" sourceType="range" sourceRef="A1:H31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="18098" divId="Argentina_Workbook_18098" sourceType="range" sourceRef="A1:I31" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Argentina\Argentina_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>